--- a/modelos/OBAOLE4423044/OBAOLE4423044_Sell in_metricas.xlsx
+++ b/modelos/OBAOLE4423044/OBAOLE4423044_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44740</v>
       </c>
       <c r="B2" t="n">
-        <v>12.90387168641936</v>
+        <v>12.9038076035996</v>
       </c>
       <c r="C2" t="n">
-        <v>-40.10734648904972</v>
+        <v>-47.2984162448334</v>
       </c>
       <c r="D2" t="n">
-        <v>73.15321005205676</v>
+        <v>67.87756297625008</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
@@ -496,13 +496,13 @@
         <v>44747</v>
       </c>
       <c r="B3" t="n">
-        <v>17.47331876809162</v>
+        <v>17.47332445168763</v>
       </c>
       <c r="C3" t="n">
-        <v>-39.53379617604681</v>
+        <v>-40.81123565412502</v>
       </c>
       <c r="D3" t="n">
-        <v>73.72764143609139</v>
+        <v>75.53146733257229</v>
       </c>
       <c r="E3" t="n">
         <v>18</v>
@@ -516,13 +516,13 @@
         <v>44757</v>
       </c>
       <c r="B4" t="n">
-        <v>-8.724544806299662</v>
+        <v>-8.724543370300864</v>
       </c>
       <c r="C4" t="n">
-        <v>-64.28185881645298</v>
+        <v>-62.95147860633273</v>
       </c>
       <c r="D4" t="n">
-        <v>51.15899392056648</v>
+        <v>51.84362928172761</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
@@ -536,13 +536,13 @@
         <v>44768</v>
       </c>
       <c r="B5" t="n">
-        <v>-20.5125843313395</v>
+        <v>-20.5126395031632</v>
       </c>
       <c r="C5" t="n">
-        <v>-80.65043425235152</v>
+        <v>-78.37421792565735</v>
       </c>
       <c r="D5" t="n">
-        <v>34.02649447017316</v>
+        <v>32.99668744558119</v>
       </c>
       <c r="E5" t="n">
         <v>36</v>
@@ -556,13 +556,13 @@
         <v>44782</v>
       </c>
       <c r="B6" t="n">
-        <v>2.453412567440637</v>
+        <v>2.453437184550467</v>
       </c>
       <c r="C6" t="n">
-        <v>-52.1021960844227</v>
+        <v>-57.03572833987351</v>
       </c>
       <c r="D6" t="n">
-        <v>61.79272234625015</v>
+        <v>57.14104953471863</v>
       </c>
       <c r="E6" t="n">
         <v>12</v>
@@ -576,13 +576,13 @@
         <v>44796</v>
       </c>
       <c r="B7" t="n">
-        <v>-19.66429351017541</v>
+        <v>-19.6642933082299</v>
       </c>
       <c r="C7" t="n">
-        <v>-79.96642102507811</v>
+        <v>-74.59773584267332</v>
       </c>
       <c r="D7" t="n">
-        <v>37.58299022938808</v>
+        <v>39.74209658787064</v>
       </c>
       <c r="E7" t="n">
         <v>12</v>
@@ -596,13 +596,13 @@
         <v>44803</v>
       </c>
       <c r="B8" t="n">
-        <v>-22.72717416811611</v>
+        <v>-22.72720408251479</v>
       </c>
       <c r="C8" t="n">
-        <v>-82.79930177159636</v>
+        <v>-84.71651857200798</v>
       </c>
       <c r="D8" t="n">
-        <v>34.86912048078425</v>
+        <v>35.5155975543581</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
@@ -616,13 +616,13 @@
         <v>44810</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.455540408025513</v>
+        <v>-4.455520637475445</v>
       </c>
       <c r="C9" t="n">
-        <v>-60.36154577632323</v>
+        <v>-63.96434349581133</v>
       </c>
       <c r="D9" t="n">
-        <v>58.10753255490588</v>
+        <v>57.37804028544279</v>
       </c>
       <c r="E9" t="n">
         <v>66</v>
@@ -636,13 +636,13 @@
         <v>44817</v>
       </c>
       <c r="B10" t="n">
-        <v>37.08366705796001</v>
+        <v>37.08375185766403</v>
       </c>
       <c r="C10" t="n">
-        <v>-23.37482948485668</v>
+        <v>-21.96423456386242</v>
       </c>
       <c r="D10" t="n">
-        <v>91.96323288859362</v>
+        <v>97.59400642974182</v>
       </c>
       <c r="E10" t="n">
         <v>132</v>
@@ -656,13 +656,13 @@
         <v>44824</v>
       </c>
       <c r="B11" t="n">
-        <v>72.67297776593284</v>
+        <v>72.67297776584084</v>
       </c>
       <c r="C11" t="n">
-        <v>14.05839301473155</v>
+        <v>17.82672226124915</v>
       </c>
       <c r="D11" t="n">
-        <v>130.3574276408763</v>
+        <v>126.8823410610253</v>
       </c>
       <c r="E11" t="n">
         <v>60</v>
@@ -676,13 +676,13 @@
         <v>44831</v>
       </c>
       <c r="B12" t="n">
-        <v>60.38478173625165</v>
+        <v>60.38446813504927</v>
       </c>
       <c r="C12" t="n">
-        <v>2.562454486192628</v>
+        <v>-0.5038130405609595</v>
       </c>
       <c r="D12" t="n">
-        <v>119.8353848247372</v>
+        <v>115.7160237228911</v>
       </c>
       <c r="E12" t="n">
         <v>72</v>
@@ -696,13 +696,13 @@
         <v>44838</v>
       </c>
       <c r="B13" t="n">
-        <v>57.29351707736996</v>
+        <v>57.2936030537424</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.566307597920408</v>
+        <v>-0.6713646190833421</v>
       </c>
       <c r="D13" t="n">
-        <v>118.4029847722847</v>
+        <v>115.3116865409947</v>
       </c>
       <c r="E13" t="n">
         <v>12</v>
@@ -716,13 +716,13 @@
         <v>44852</v>
       </c>
       <c r="B14" t="n">
-        <v>64.22288510532246</v>
+        <v>64.73536288128673</v>
       </c>
       <c r="C14" t="n">
-        <v>4.109138987311552</v>
+        <v>3.9877802083232</v>
       </c>
       <c r="D14" t="n">
-        <v>124.3610678104454</v>
+        <v>124.6890342948067</v>
       </c>
       <c r="E14" t="n">
         <v>6</v>
@@ -736,13 +736,13 @@
         <v>44859</v>
       </c>
       <c r="B15" t="n">
-        <v>29.2448921992742</v>
+        <v>29.26450927076064</v>
       </c>
       <c r="C15" t="n">
-        <v>-24.96808567347609</v>
+        <v>-30.89787788160164</v>
       </c>
       <c r="D15" t="n">
-        <v>92.32073305919805</v>
+        <v>86.71262315039529</v>
       </c>
       <c r="E15" t="n">
         <v>6</v>
@@ -756,13 +756,13 @@
         <v>44865</v>
       </c>
       <c r="B16" t="n">
-        <v>45.12234652783468</v>
+        <v>44.86140667964025</v>
       </c>
       <c r="C16" t="n">
-        <v>-19.08208030751637</v>
+        <v>-14.30309744894072</v>
       </c>
       <c r="D16" t="n">
-        <v>106.8956010628824</v>
+        <v>103.3424485412661</v>
       </c>
       <c r="E16" t="n">
         <v>6</v>
@@ -776,13 +776,13 @@
         <v>44883</v>
       </c>
       <c r="B17" t="n">
-        <v>39.94505494807231</v>
+        <v>39.1750923599551</v>
       </c>
       <c r="C17" t="n">
-        <v>-17.84138562448821</v>
+        <v>-16.70280985637477</v>
       </c>
       <c r="D17" t="n">
-        <v>98.19991401224667</v>
+        <v>98.71007375348951</v>
       </c>
       <c r="E17" t="n">
         <v>6</v>
@@ -796,13 +796,13 @@
         <v>44887</v>
       </c>
       <c r="B18" t="n">
-        <v>83.80298057981918</v>
+        <v>83.07067241105301</v>
       </c>
       <c r="C18" t="n">
-        <v>23.3040562530718</v>
+        <v>24.46063906940006</v>
       </c>
       <c r="D18" t="n">
-        <v>144.788531550944</v>
+        <v>137.7516388261919</v>
       </c>
       <c r="E18" t="n">
         <v>24</v>
@@ -816,13 +816,13 @@
         <v>44894</v>
       </c>
       <c r="B19" t="n">
-        <v>88.67934330797232</v>
+        <v>87.82879702020807</v>
       </c>
       <c r="C19" t="n">
-        <v>26.0098593036283</v>
+        <v>30.38779306959621</v>
       </c>
       <c r="D19" t="n">
-        <v>144.2449304067195</v>
+        <v>143.0961851862685</v>
       </c>
       <c r="E19" t="n">
         <v>24</v>
@@ -836,13 +836,13 @@
         <v>44897</v>
       </c>
       <c r="B20" t="n">
-        <v>58.72233505649581</v>
+        <v>58.56233830042424</v>
       </c>
       <c r="C20" t="n">
-        <v>5.560005304638263</v>
+        <v>-2.946454668306936</v>
       </c>
       <c r="D20" t="n">
-        <v>116.6729405633374</v>
+        <v>114.9259378407751</v>
       </c>
       <c r="E20" t="n">
         <v>12</v>
@@ -856,13 +856,13 @@
         <v>44908</v>
       </c>
       <c r="B21" t="n">
-        <v>6.198654194599044</v>
+        <v>5.943967617675298</v>
       </c>
       <c r="C21" t="n">
-        <v>-46.93769131943475</v>
+        <v>-55.79390970889015</v>
       </c>
       <c r="D21" t="n">
-        <v>63.09451408558385</v>
+        <v>64.68717384990865</v>
       </c>
       <c r="E21" t="n">
         <v>24</v>
@@ -876,13 +876,13 @@
         <v>44915</v>
       </c>
       <c r="B22" t="n">
-        <v>-4.847569138370204</v>
+        <v>-3.345457702818067</v>
       </c>
       <c r="C22" t="n">
-        <v>-60.39428690549909</v>
+        <v>-58.75897088394688</v>
       </c>
       <c r="D22" t="n">
-        <v>48.04118740171042</v>
+        <v>53.41686240049685</v>
       </c>
       <c r="E22" t="n">
         <v>12</v>
@@ -896,13 +896,13 @@
         <v>44925</v>
       </c>
       <c r="B23" t="n">
-        <v>31.18059033052202</v>
+        <v>30.52525738150757</v>
       </c>
       <c r="C23" t="n">
-        <v>-28.58934626886967</v>
+        <v>-28.30095562808512</v>
       </c>
       <c r="D23" t="n">
-        <v>93.94799755162573</v>
+        <v>89.13787520946191</v>
       </c>
       <c r="E23" t="n">
         <v>6</v>
@@ -916,13 +916,13 @@
         <v>44932</v>
       </c>
       <c r="B24" t="n">
-        <v>44.66534121417033</v>
+        <v>45.55324061289843</v>
       </c>
       <c r="C24" t="n">
-        <v>-10.68708433339543</v>
+        <v>-10.22007985117854</v>
       </c>
       <c r="D24" t="n">
-        <v>102.3283562017101</v>
+        <v>105.2515722813787</v>
       </c>
       <c r="E24" t="n">
         <v>6</v>
@@ -936,13 +936,13 @@
         <v>44936</v>
       </c>
       <c r="B25" t="n">
-        <v>57.24240848986119</v>
+        <v>58.47996941415852</v>
       </c>
       <c r="C25" t="n">
-        <v>1.373116213025698</v>
+        <v>2.639402156109203</v>
       </c>
       <c r="D25" t="n">
-        <v>113.5010395235286</v>
+        <v>110.2553700093113</v>
       </c>
       <c r="E25" t="n">
         <v>78</v>
@@ -956,13 +956,13 @@
         <v>44946</v>
       </c>
       <c r="B26" t="n">
-        <v>6.768592703876266</v>
+        <v>5.489036960202611</v>
       </c>
       <c r="C26" t="n">
-        <v>-50.63070283445097</v>
+        <v>-48.25749554641196</v>
       </c>
       <c r="D26" t="n">
-        <v>62.0039982971557</v>
+        <v>64.35928056616332</v>
       </c>
       <c r="E26" t="n">
         <v>102</v>
@@ -976,13 +976,13 @@
         <v>44950</v>
       </c>
       <c r="B27" t="n">
-        <v>15.76422884101521</v>
+        <v>14.38622956823281</v>
       </c>
       <c r="C27" t="n">
-        <v>-41.56339848015713</v>
+        <v>-40.07881718265654</v>
       </c>
       <c r="D27" t="n">
-        <v>75.06197290330124</v>
+        <v>68.75971362592506</v>
       </c>
       <c r="E27" t="n">
         <v>72</v>
@@ -996,13 +996,13 @@
         <v>44957</v>
       </c>
       <c r="B28" t="n">
-        <v>26.94688975174813</v>
+        <v>26.63261550637912</v>
       </c>
       <c r="C28" t="n">
-        <v>-30.40522505114798</v>
+        <v>-29.91200171997846</v>
       </c>
       <c r="D28" t="n">
-        <v>89.2668892672863</v>
+        <v>87.0582453050403</v>
       </c>
       <c r="E28" t="n">
         <v>6</v>
@@ -1016,13 +1016,13 @@
         <v>44960</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.7164523998795858</v>
+        <v>-0.3494282730697478</v>
       </c>
       <c r="C29" t="n">
-        <v>-54.83276907357371</v>
+        <v>-60.26121497567802</v>
       </c>
       <c r="D29" t="n">
-        <v>53.09600904547326</v>
+        <v>56.78375877837159</v>
       </c>
       <c r="E29" t="n">
         <v>6</v>
@@ -1036,13 +1036,13 @@
         <v>44971</v>
       </c>
       <c r="B30" t="n">
-        <v>-30.96838826695955</v>
+        <v>-30.32772512375732</v>
       </c>
       <c r="C30" t="n">
-        <v>-94.53708028808481</v>
+        <v>-83.51254577760717</v>
       </c>
       <c r="D30" t="n">
-        <v>23.03753978234908</v>
+        <v>31.12234760035338</v>
       </c>
       <c r="E30" t="n">
         <v>6</v>
@@ -1056,13 +1056,13 @@
         <v>44988</v>
       </c>
       <c r="B31" t="n">
-        <v>37.17958324128631</v>
+        <v>37.59170078205318</v>
       </c>
       <c r="C31" t="n">
-        <v>-23.61278626313065</v>
+        <v>-22.67549113204133</v>
       </c>
       <c r="D31" t="n">
-        <v>92.27154482180313</v>
+        <v>95.43670414922367</v>
       </c>
       <c r="E31" t="n">
         <v>48</v>
@@ -1076,13 +1076,13 @@
         <v>44992</v>
       </c>
       <c r="B32" t="n">
-        <v>121.8413073718656</v>
+        <v>122.3128595054541</v>
       </c>
       <c r="C32" t="n">
-        <v>64.53833823095607</v>
+        <v>68.27974788030498</v>
       </c>
       <c r="D32" t="n">
-        <v>176.5259229490524</v>
+        <v>176.9713130414715</v>
       </c>
       <c r="E32" t="n">
         <v>30</v>
@@ -1096,13 +1096,13 @@
         <v>45020</v>
       </c>
       <c r="B33" t="n">
-        <v>32.96988713648796</v>
+        <v>33.32021808807156</v>
       </c>
       <c r="C33" t="n">
-        <v>-22.5745548717009</v>
+        <v>-23.93528947147744</v>
       </c>
       <c r="D33" t="n">
-        <v>91.76226277512635</v>
+        <v>93.44415364669184</v>
       </c>
       <c r="E33" t="n">
         <v>36</v>
@@ -1116,13 +1116,13 @@
         <v>45027</v>
       </c>
       <c r="B34" t="n">
-        <v>-34.52061925261921</v>
+        <v>-34.58256764530961</v>
       </c>
       <c r="C34" t="n">
-        <v>-93.61596260826633</v>
+        <v>-91.03612726763923</v>
       </c>
       <c r="D34" t="n">
-        <v>25.39483904279344</v>
+        <v>22.20109860344542</v>
       </c>
       <c r="E34" t="n">
         <v>102</v>
@@ -1136,13 +1136,13 @@
         <v>45034</v>
       </c>
       <c r="B35" t="n">
-        <v>19.62749307456136</v>
+        <v>19.95382530724157</v>
       </c>
       <c r="C35" t="n">
-        <v>-37.02324356097314</v>
+        <v>-39.67177981995097</v>
       </c>
       <c r="D35" t="n">
-        <v>71.8752929449826</v>
+        <v>78.91446075363615</v>
       </c>
       <c r="E35" t="n">
         <v>12</v>
@@ -1217,22 +1217,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1864.042424523243</v>
+        <v>1889.301411255489</v>
       </c>
       <c r="C2" t="n">
-        <v>43.17455760657244</v>
+        <v>43.46609496211374</v>
       </c>
       <c r="D2" t="n">
-        <v>34.00076785128464</v>
+        <v>33.97614531948752</v>
       </c>
       <c r="E2" t="n">
-        <v>3.115573975209131</v>
+        <v>3.095560083814926</v>
       </c>
       <c r="F2" t="n">
-        <v>3.173809361212297</v>
+        <v>3.167142710042749</v>
       </c>
       <c r="G2" t="n">
-        <v>1.46060946448326</v>
+        <v>1.463101324612636</v>
       </c>
       <c r="H2" t="n">
         <v>0.875</v>
@@ -1243,25 +1243,25 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>2662.945063852363</v>
+        <v>2658.692077517066</v>
       </c>
       <c r="C3" t="n">
-        <v>51.60373110398475</v>
+        <v>51.56250650925598</v>
       </c>
       <c r="D3" t="n">
-        <v>39.20902239280925</v>
+        <v>39.06752527247242</v>
       </c>
       <c r="E3" t="n">
-        <v>1.940730971912169</v>
+        <v>1.926310260946319</v>
       </c>
       <c r="F3" t="n">
-        <v>1.244541362361512</v>
+        <v>1.21471137125072</v>
       </c>
       <c r="G3" t="n">
-        <v>1.186858269802499</v>
+        <v>1.188685726084883</v>
       </c>
       <c r="H3" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAOLE4423044/OBAOLE4423044_Sell in_metricas.xlsx
+++ b/modelos/OBAOLE4423044/OBAOLE4423044_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44740</v>
       </c>
       <c r="B2" t="n">
-        <v>12.9038076035996</v>
+        <v>3.45712535124818</v>
       </c>
       <c r="C2" t="n">
-        <v>-47.2984162448334</v>
+        <v>-53.27085867634335</v>
       </c>
       <c r="D2" t="n">
-        <v>67.87756297625008</v>
+        <v>59.80141537876285</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
@@ -496,13 +496,13 @@
         <v>44747</v>
       </c>
       <c r="B3" t="n">
-        <v>17.47332445168763</v>
+        <v>13.50301168090883</v>
       </c>
       <c r="C3" t="n">
-        <v>-40.81123565412502</v>
+        <v>-42.96998262548086</v>
       </c>
       <c r="D3" t="n">
-        <v>75.53146733257229</v>
+        <v>68.60102940714413</v>
       </c>
       <c r="E3" t="n">
         <v>18</v>
@@ -516,13 +516,13 @@
         <v>44757</v>
       </c>
       <c r="B4" t="n">
-        <v>-8.724543370300864</v>
+        <v>-15.85280880048941</v>
       </c>
       <c r="C4" t="n">
-        <v>-62.95147860633273</v>
+        <v>-69.98234756494828</v>
       </c>
       <c r="D4" t="n">
-        <v>51.84362928172761</v>
+        <v>36.73137641070308</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
@@ -536,13 +536,13 @@
         <v>44768</v>
       </c>
       <c r="B5" t="n">
-        <v>-20.5126395031632</v>
+        <v>-32.25096573862837</v>
       </c>
       <c r="C5" t="n">
-        <v>-78.37421792565735</v>
+        <v>-88.89584483546298</v>
       </c>
       <c r="D5" t="n">
-        <v>32.99668744558119</v>
+        <v>22.29656939382898</v>
       </c>
       <c r="E5" t="n">
         <v>36</v>
@@ -556,13 +556,13 @@
         <v>44782</v>
       </c>
       <c r="B6" t="n">
-        <v>2.453437184550467</v>
+        <v>-3.378531103839748</v>
       </c>
       <c r="C6" t="n">
-        <v>-57.03572833987351</v>
+        <v>-52.60572067409919</v>
       </c>
       <c r="D6" t="n">
-        <v>57.14104953471863</v>
+        <v>52.88440594249214</v>
       </c>
       <c r="E6" t="n">
         <v>12</v>
@@ -576,13 +576,13 @@
         <v>44796</v>
       </c>
       <c r="B7" t="n">
-        <v>-19.6642933082299</v>
+        <v>-32.18332616841167</v>
       </c>
       <c r="C7" t="n">
-        <v>-74.59773584267332</v>
+        <v>-85.56870361571247</v>
       </c>
       <c r="D7" t="n">
-        <v>39.74209658787064</v>
+        <v>21.34934900378072</v>
       </c>
       <c r="E7" t="n">
         <v>12</v>
@@ -596,13 +596,13 @@
         <v>44803</v>
       </c>
       <c r="B8" t="n">
-        <v>-22.72720408251479</v>
+        <v>-26.68056960760504</v>
       </c>
       <c r="C8" t="n">
-        <v>-84.71651857200798</v>
+        <v>-80.32366930386819</v>
       </c>
       <c r="D8" t="n">
-        <v>35.5155975543581</v>
+        <v>22.84820344942496</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
@@ -616,13 +616,13 @@
         <v>44810</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.455520637475445</v>
+        <v>6.592663774330219</v>
       </c>
       <c r="C9" t="n">
-        <v>-63.96434349581133</v>
+        <v>-42.52273693738821</v>
       </c>
       <c r="D9" t="n">
-        <v>57.37804028544279</v>
+        <v>58.57634082974154</v>
       </c>
       <c r="E9" t="n">
         <v>66</v>
@@ -636,13 +636,13 @@
         <v>44817</v>
       </c>
       <c r="B10" t="n">
-        <v>37.08375185766403</v>
+        <v>58.62810567041859</v>
       </c>
       <c r="C10" t="n">
-        <v>-21.96423456386242</v>
+        <v>10.37998426134664</v>
       </c>
       <c r="D10" t="n">
-        <v>97.59400642974182</v>
+        <v>112.2841525367364</v>
       </c>
       <c r="E10" t="n">
         <v>132</v>
@@ -656,13 +656,13 @@
         <v>44824</v>
       </c>
       <c r="B11" t="n">
-        <v>72.67297776584084</v>
+        <v>90.69413269020072</v>
       </c>
       <c r="C11" t="n">
-        <v>17.82672226124915</v>
+        <v>37.72566011658265</v>
       </c>
       <c r="D11" t="n">
-        <v>126.8823410610253</v>
+        <v>144.8375752961331</v>
       </c>
       <c r="E11" t="n">
         <v>60</v>
@@ -676,13 +676,13 @@
         <v>44831</v>
       </c>
       <c r="B12" t="n">
-        <v>60.38446813504927</v>
+        <v>61.80763419188739</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5038130405609595</v>
+        <v>10.63833652957354</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7160237228911</v>
+        <v>114.8605543622762</v>
       </c>
       <c r="E12" t="n">
         <v>72</v>
@@ -696,13 +696,13 @@
         <v>44838</v>
       </c>
       <c r="B13" t="n">
-        <v>57.2936030537424</v>
+        <v>50.91003251074793</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.6713646190833421</v>
+        <v>-1.352503567208498</v>
       </c>
       <c r="D13" t="n">
-        <v>115.3116865409947</v>
+        <v>103.6406064774894</v>
       </c>
       <c r="E13" t="n">
         <v>12</v>
@@ -716,13 +716,13 @@
         <v>44852</v>
       </c>
       <c r="B14" t="n">
-        <v>64.73536288128673</v>
+        <v>65.65556954495989</v>
       </c>
       <c r="C14" t="n">
-        <v>3.9877802083232</v>
+        <v>10.30759465115836</v>
       </c>
       <c r="D14" t="n">
-        <v>124.6890342948067</v>
+        <v>119.2862187324519</v>
       </c>
       <c r="E14" t="n">
         <v>6</v>
@@ -736,13 +736,13 @@
         <v>44859</v>
       </c>
       <c r="B15" t="n">
-        <v>29.26450927076064</v>
+        <v>35.89233882290625</v>
       </c>
       <c r="C15" t="n">
-        <v>-30.89787788160164</v>
+        <v>-19.00901524976486</v>
       </c>
       <c r="D15" t="n">
-        <v>86.71262315039529</v>
+        <v>87.62523913830915</v>
       </c>
       <c r="E15" t="n">
         <v>6</v>
@@ -756,13 +756,13 @@
         <v>44865</v>
       </c>
       <c r="B16" t="n">
-        <v>44.86140667964025</v>
+        <v>60.74101476437605</v>
       </c>
       <c r="C16" t="n">
-        <v>-14.30309744894072</v>
+        <v>8.852737072333548</v>
       </c>
       <c r="D16" t="n">
-        <v>103.3424485412661</v>
+        <v>115.3973680590803</v>
       </c>
       <c r="E16" t="n">
         <v>6</v>
@@ -776,13 +776,13 @@
         <v>44883</v>
       </c>
       <c r="B17" t="n">
-        <v>39.1750923599551</v>
+        <v>34.59003340392087</v>
       </c>
       <c r="C17" t="n">
-        <v>-16.70280985637477</v>
+        <v>-15.73725111083098</v>
       </c>
       <c r="D17" t="n">
-        <v>98.71007375348951</v>
+        <v>87.86138553039035</v>
       </c>
       <c r="E17" t="n">
         <v>6</v>
@@ -796,13 +796,13 @@
         <v>44887</v>
       </c>
       <c r="B18" t="n">
-        <v>83.07067241105301</v>
+        <v>80.51113078162905</v>
       </c>
       <c r="C18" t="n">
-        <v>24.46063906940006</v>
+        <v>27.83080781645315</v>
       </c>
       <c r="D18" t="n">
-        <v>137.7516388261919</v>
+        <v>132.9140043257251</v>
       </c>
       <c r="E18" t="n">
         <v>24</v>
@@ -816,13 +816,13 @@
         <v>44894</v>
       </c>
       <c r="B19" t="n">
-        <v>87.82879702020807</v>
+        <v>83.30174309763049</v>
       </c>
       <c r="C19" t="n">
-        <v>30.38779306959621</v>
+        <v>29.43874329216057</v>
       </c>
       <c r="D19" t="n">
-        <v>143.0961851862685</v>
+        <v>134.5336144334722</v>
       </c>
       <c r="E19" t="n">
         <v>24</v>
@@ -836,13 +836,13 @@
         <v>44897</v>
       </c>
       <c r="B20" t="n">
-        <v>58.56233830042424</v>
+        <v>52.82923831738742</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.946454668306936</v>
+        <v>-0.3805845376026289</v>
       </c>
       <c r="D20" t="n">
-        <v>114.9259378407751</v>
+        <v>105.4662225926633</v>
       </c>
       <c r="E20" t="n">
         <v>12</v>
@@ -856,13 +856,13 @@
         <v>44908</v>
       </c>
       <c r="B21" t="n">
-        <v>5.943967617675298</v>
+        <v>-8.166384758647155</v>
       </c>
       <c r="C21" t="n">
-        <v>-55.79390970889015</v>
+        <v>-58.28399630238432</v>
       </c>
       <c r="D21" t="n">
-        <v>64.68717384990865</v>
+        <v>44.67712072522249</v>
       </c>
       <c r="E21" t="n">
         <v>24</v>
@@ -876,13 +876,13 @@
         <v>44915</v>
       </c>
       <c r="B22" t="n">
-        <v>-3.345457702818067</v>
+        <v>-10.89735627224513</v>
       </c>
       <c r="C22" t="n">
-        <v>-58.75897088394688</v>
+        <v>-65.575764821799</v>
       </c>
       <c r="D22" t="n">
-        <v>53.41686240049685</v>
+        <v>43.55724274135609</v>
       </c>
       <c r="E22" t="n">
         <v>12</v>
@@ -896,13 +896,13 @@
         <v>44925</v>
       </c>
       <c r="B23" t="n">
-        <v>30.52525738150757</v>
+        <v>34.9797767953454</v>
       </c>
       <c r="C23" t="n">
-        <v>-28.30095562808512</v>
+        <v>-22.60579927011893</v>
       </c>
       <c r="D23" t="n">
-        <v>89.13787520946191</v>
+        <v>88.70407775988052</v>
       </c>
       <c r="E23" t="n">
         <v>6</v>
@@ -916,13 +916,13 @@
         <v>44932</v>
       </c>
       <c r="B24" t="n">
-        <v>45.55324061289843</v>
+        <v>43.89974960098448</v>
       </c>
       <c r="C24" t="n">
-        <v>-10.22007985117854</v>
+        <v>-10.5342698122919</v>
       </c>
       <c r="D24" t="n">
-        <v>105.2515722813787</v>
+        <v>99.25628501411919</v>
       </c>
       <c r="E24" t="n">
         <v>6</v>
@@ -936,13 +936,13 @@
         <v>44936</v>
       </c>
       <c r="B25" t="n">
-        <v>58.47996941415852</v>
+        <v>47.57351466727539</v>
       </c>
       <c r="C25" t="n">
-        <v>2.639402156109203</v>
+        <v>-9.411944991859869</v>
       </c>
       <c r="D25" t="n">
-        <v>110.2553700093113</v>
+        <v>101.6640064343495</v>
       </c>
       <c r="E25" t="n">
         <v>78</v>
@@ -956,13 +956,13 @@
         <v>44946</v>
       </c>
       <c r="B26" t="n">
-        <v>5.489036960202611</v>
+        <v>-28.11018284833131</v>
       </c>
       <c r="C26" t="n">
-        <v>-48.25749554641196</v>
+        <v>-82.30908937519636</v>
       </c>
       <c r="D26" t="n">
-        <v>64.35928056616332</v>
+        <v>22.56595147907268</v>
       </c>
       <c r="E26" t="n">
         <v>102</v>
@@ -976,13 +976,13 @@
         <v>44950</v>
       </c>
       <c r="B27" t="n">
-        <v>14.38622956823281</v>
+        <v>-23.85745269850486</v>
       </c>
       <c r="C27" t="n">
-        <v>-40.07881718265654</v>
+        <v>-78.59941613071827</v>
       </c>
       <c r="D27" t="n">
-        <v>68.75971362592506</v>
+        <v>25.7754163469377</v>
       </c>
       <c r="E27" t="n">
         <v>72</v>
@@ -996,13 +996,13 @@
         <v>44957</v>
       </c>
       <c r="B28" t="n">
-        <v>26.63261550637912</v>
+        <v>9.678509780204763</v>
       </c>
       <c r="C28" t="n">
-        <v>-29.91200171997846</v>
+        <v>-42.671822218259</v>
       </c>
       <c r="D28" t="n">
-        <v>87.0582453050403</v>
+        <v>63.7743976996435</v>
       </c>
       <c r="E28" t="n">
         <v>6</v>
@@ -1016,13 +1016,13 @@
         <v>44960</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.3494282730697478</v>
+        <v>-9.016951995130398</v>
       </c>
       <c r="C29" t="n">
-        <v>-60.26121497567802</v>
+        <v>-67.28803390388877</v>
       </c>
       <c r="D29" t="n">
-        <v>56.78375877837159</v>
+        <v>45.22952786524271</v>
       </c>
       <c r="E29" t="n">
         <v>6</v>
@@ -1036,13 +1036,13 @@
         <v>44971</v>
       </c>
       <c r="B30" t="n">
-        <v>-30.32772512375732</v>
+        <v>-26.29458121575556</v>
       </c>
       <c r="C30" t="n">
-        <v>-83.51254577760717</v>
+        <v>-79.75598260244053</v>
       </c>
       <c r="D30" t="n">
-        <v>31.12234760035338</v>
+        <v>28.57079250939664</v>
       </c>
       <c r="E30" t="n">
         <v>6</v>
@@ -1056,13 +1056,13 @@
         <v>44988</v>
       </c>
       <c r="B31" t="n">
-        <v>37.59170078205318</v>
+        <v>37.15518427879442</v>
       </c>
       <c r="C31" t="n">
-        <v>-22.67549113204133</v>
+        <v>-17.64424036730331</v>
       </c>
       <c r="D31" t="n">
-        <v>95.43670414922367</v>
+        <v>89.4966619975087</v>
       </c>
       <c r="E31" t="n">
         <v>48</v>
@@ -1076,13 +1076,13 @@
         <v>44992</v>
       </c>
       <c r="B32" t="n">
-        <v>122.3128595054541</v>
+        <v>120.3787026215851</v>
       </c>
       <c r="C32" t="n">
-        <v>68.27974788030498</v>
+        <v>67.68550278130252</v>
       </c>
       <c r="D32" t="n">
-        <v>176.9713130414715</v>
+        <v>171.6232837245317</v>
       </c>
       <c r="E32" t="n">
         <v>30</v>
@@ -1096,13 +1096,13 @@
         <v>45020</v>
       </c>
       <c r="B33" t="n">
-        <v>33.32021808807156</v>
+        <v>28.75243731417515</v>
       </c>
       <c r="C33" t="n">
-        <v>-23.93528947147744</v>
+        <v>-22.67952027881001</v>
       </c>
       <c r="D33" t="n">
-        <v>93.44415364669184</v>
+        <v>81.76929853281432</v>
       </c>
       <c r="E33" t="n">
         <v>36</v>
@@ -1116,13 +1116,13 @@
         <v>45027</v>
       </c>
       <c r="B34" t="n">
-        <v>-34.58256764530961</v>
+        <v>-37.92180882195714</v>
       </c>
       <c r="C34" t="n">
-        <v>-91.03612726763923</v>
+        <v>-90.83312886350249</v>
       </c>
       <c r="D34" t="n">
-        <v>22.20109860344542</v>
+        <v>19.42880598817889</v>
       </c>
       <c r="E34" t="n">
         <v>102</v>
@@ -1136,13 +1136,13 @@
         <v>45034</v>
       </c>
       <c r="B35" t="n">
-        <v>19.95382530724157</v>
+        <v>22.20437789244568</v>
       </c>
       <c r="C35" t="n">
-        <v>-39.67177981995097</v>
+        <v>-32.72138054915139</v>
       </c>
       <c r="D35" t="n">
-        <v>78.91446075363615</v>
+        <v>76.68369319728411</v>
       </c>
       <c r="E35" t="n">
         <v>12</v>
@@ -1217,22 +1217,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1889.301411255489</v>
+        <v>2813.744875386076</v>
       </c>
       <c r="C2" t="n">
-        <v>43.46609496211374</v>
+        <v>53.04474408823249</v>
       </c>
       <c r="D2" t="n">
-        <v>33.97614531948752</v>
+        <v>39.26544468534936</v>
       </c>
       <c r="E2" t="n">
-        <v>3.095560083814926</v>
+        <v>3.370064205984664</v>
       </c>
       <c r="F2" t="n">
-        <v>3.167142710042749</v>
+        <v>3.522285663265261</v>
       </c>
       <c r="G2" t="n">
-        <v>1.463101324612636</v>
+        <v>1.482050404451289</v>
       </c>
       <c r="H2" t="n">
         <v>0.875</v>
@@ -1243,25 +1243,25 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>2658.692077517066</v>
+        <v>2906.415041504848</v>
       </c>
       <c r="C3" t="n">
-        <v>51.56250650925598</v>
+        <v>53.91117733369257</v>
       </c>
       <c r="D3" t="n">
-        <v>39.06752527247242</v>
+        <v>42.32233866142379</v>
       </c>
       <c r="E3" t="n">
-        <v>1.926310260946319</v>
+        <v>2.028408653054441</v>
       </c>
       <c r="F3" t="n">
-        <v>1.21471137125072</v>
+        <v>1.335809770655877</v>
       </c>
       <c r="G3" t="n">
-        <v>1.188685726084883</v>
+        <v>1.242918919622092</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAOLE4423044/OBAOLE4423044_Sell in_metricas.xlsx
+++ b/modelos/OBAOLE4423044/OBAOLE4423044_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44740</v>
       </c>
       <c r="B2" t="n">
-        <v>3.45712535124818</v>
+        <v>12.90387112506636</v>
       </c>
       <c r="C2" t="n">
-        <v>-53.27085867634335</v>
+        <v>-49.47927286758516</v>
       </c>
       <c r="D2" t="n">
-        <v>59.80141537876285</v>
+        <v>68.11386675813712</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
@@ -496,13 +496,13 @@
         <v>44747</v>
       </c>
       <c r="B3" t="n">
-        <v>13.50301168090883</v>
+        <v>17.47332526263352</v>
       </c>
       <c r="C3" t="n">
-        <v>-42.96998262548086</v>
+        <v>-47.15108664427605</v>
       </c>
       <c r="D3" t="n">
-        <v>68.60102940714413</v>
+        <v>77.16639804988624</v>
       </c>
       <c r="E3" t="n">
         <v>18</v>
@@ -516,13 +516,13 @@
         <v>44757</v>
       </c>
       <c r="B4" t="n">
-        <v>-15.85280880048941</v>
+        <v>-8.7245437848498</v>
       </c>
       <c r="C4" t="n">
-        <v>-69.98234756494828</v>
+        <v>-63.06104751052196</v>
       </c>
       <c r="D4" t="n">
-        <v>36.73137641070308</v>
+        <v>46.06621109497579</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
@@ -536,13 +536,13 @@
         <v>44768</v>
       </c>
       <c r="B5" t="n">
-        <v>-32.25096573862837</v>
+        <v>-20.51258434418116</v>
       </c>
       <c r="C5" t="n">
-        <v>-88.89584483546298</v>
+        <v>-75.79224880611183</v>
       </c>
       <c r="D5" t="n">
-        <v>22.29656939382898</v>
+        <v>38.36269285123423</v>
       </c>
       <c r="E5" t="n">
         <v>36</v>
@@ -556,13 +556,13 @@
         <v>44782</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.378531103839748</v>
+        <v>2.453414258669454</v>
       </c>
       <c r="C6" t="n">
-        <v>-52.60572067409919</v>
+        <v>-53.56238554529141</v>
       </c>
       <c r="D6" t="n">
-        <v>52.88440594249214</v>
+        <v>60.60489758370264</v>
       </c>
       <c r="E6" t="n">
         <v>12</v>
@@ -576,13 +576,13 @@
         <v>44796</v>
       </c>
       <c r="B7" t="n">
-        <v>-32.18332616841167</v>
+        <v>-19.66428756995407</v>
       </c>
       <c r="C7" t="n">
-        <v>-85.56870361571247</v>
+        <v>-76.17495574794142</v>
       </c>
       <c r="D7" t="n">
-        <v>21.34934900378072</v>
+        <v>34.99920495987493</v>
       </c>
       <c r="E7" t="n">
         <v>12</v>
@@ -596,13 +596,13 @@
         <v>44803</v>
       </c>
       <c r="B8" t="n">
-        <v>-26.68056960760504</v>
+        <v>-22.72701161073456</v>
       </c>
       <c r="C8" t="n">
-        <v>-80.32366930386819</v>
+        <v>-79.54903169628858</v>
       </c>
       <c r="D8" t="n">
-        <v>22.84820344942496</v>
+        <v>33.443313556916</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
@@ -616,13 +616,13 @@
         <v>44810</v>
       </c>
       <c r="B9" t="n">
-        <v>6.592663774330219</v>
+        <v>-4.455521692577975</v>
       </c>
       <c r="C9" t="n">
-        <v>-42.52273693738821</v>
+        <v>-60.07715882891565</v>
       </c>
       <c r="D9" t="n">
-        <v>58.57634082974154</v>
+        <v>48.49237570427409</v>
       </c>
       <c r="E9" t="n">
         <v>66</v>
@@ -636,13 +636,13 @@
         <v>44817</v>
       </c>
       <c r="B10" t="n">
-        <v>58.62810567041859</v>
+        <v>37.08373713194055</v>
       </c>
       <c r="C10" t="n">
-        <v>10.37998426134664</v>
+        <v>-23.36928458127906</v>
       </c>
       <c r="D10" t="n">
-        <v>112.2841525367364</v>
+        <v>96.62908548759449</v>
       </c>
       <c r="E10" t="n">
         <v>132</v>
@@ -656,13 +656,13 @@
         <v>44824</v>
       </c>
       <c r="B11" t="n">
-        <v>90.69413269020072</v>
+        <v>72.67297776589922</v>
       </c>
       <c r="C11" t="n">
-        <v>37.72566011658265</v>
+        <v>11.32402632109835</v>
       </c>
       <c r="D11" t="n">
-        <v>144.8375752961331</v>
+        <v>133.958297065314</v>
       </c>
       <c r="E11" t="n">
         <v>60</v>
@@ -676,13 +676,13 @@
         <v>44831</v>
       </c>
       <c r="B12" t="n">
-        <v>61.80763419188739</v>
+        <v>60.38485970679343</v>
       </c>
       <c r="C12" t="n">
-        <v>10.63833652957354</v>
+        <v>6.025742464987133</v>
       </c>
       <c r="D12" t="n">
-        <v>114.8605543622762</v>
+        <v>117.3143686775506</v>
       </c>
       <c r="E12" t="n">
         <v>72</v>
@@ -696,13 +696,13 @@
         <v>44838</v>
       </c>
       <c r="B13" t="n">
-        <v>50.91003251074793</v>
+        <v>57.29360035669492</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.352503567208498</v>
+        <v>1.761720563183191</v>
       </c>
       <c r="D13" t="n">
-        <v>103.6406064774894</v>
+        <v>112.3844399544315</v>
       </c>
       <c r="E13" t="n">
         <v>12</v>
@@ -716,13 +716,13 @@
         <v>44852</v>
       </c>
       <c r="B14" t="n">
-        <v>65.65556954495989</v>
+        <v>63.2500287894452</v>
       </c>
       <c r="C14" t="n">
-        <v>10.30759465115836</v>
+        <v>8.753888264363614</v>
       </c>
       <c r="D14" t="n">
-        <v>119.2862187324519</v>
+        <v>121.7366487759049</v>
       </c>
       <c r="E14" t="n">
         <v>6</v>
@@ -736,13 +736,13 @@
         <v>44859</v>
       </c>
       <c r="B15" t="n">
-        <v>35.89233882290625</v>
+        <v>31.18578732184358</v>
       </c>
       <c r="C15" t="n">
-        <v>-19.00901524976486</v>
+        <v>-24.2964832948866</v>
       </c>
       <c r="D15" t="n">
-        <v>87.62523913830915</v>
+        <v>89.34226903839991</v>
       </c>
       <c r="E15" t="n">
         <v>6</v>
@@ -756,13 +756,13 @@
         <v>44865</v>
       </c>
       <c r="B16" t="n">
-        <v>60.74101476437605</v>
+        <v>47.74750327676838</v>
       </c>
       <c r="C16" t="n">
-        <v>8.852737072333548</v>
+        <v>-10.43414130631312</v>
       </c>
       <c r="D16" t="n">
-        <v>115.3973680590803</v>
+        <v>103.3351372766567</v>
       </c>
       <c r="E16" t="n">
         <v>6</v>
@@ -776,13 +776,13 @@
         <v>44883</v>
       </c>
       <c r="B17" t="n">
-        <v>34.59003340392087</v>
+        <v>38.72687053831442</v>
       </c>
       <c r="C17" t="n">
-        <v>-15.73725111083098</v>
+        <v>-17.77724083024903</v>
       </c>
       <c r="D17" t="n">
-        <v>87.86138553039035</v>
+        <v>93.18981353373904</v>
       </c>
       <c r="E17" t="n">
         <v>6</v>
@@ -796,13 +796,13 @@
         <v>44887</v>
       </c>
       <c r="B18" t="n">
-        <v>80.51113078162905</v>
+        <v>82.56181948292942</v>
       </c>
       <c r="C18" t="n">
-        <v>27.83080781645315</v>
+        <v>25.7553418348573</v>
       </c>
       <c r="D18" t="n">
-        <v>132.9140043257251</v>
+        <v>136.0960396835168</v>
       </c>
       <c r="E18" t="n">
         <v>24</v>
@@ -816,13 +816,13 @@
         <v>44894</v>
       </c>
       <c r="B19" t="n">
-        <v>83.30174309763049</v>
+        <v>87.19758152073655</v>
       </c>
       <c r="C19" t="n">
-        <v>29.43874329216057</v>
+        <v>32.61016579636061</v>
       </c>
       <c r="D19" t="n">
-        <v>134.5336144334722</v>
+        <v>143.2560093778727</v>
       </c>
       <c r="E19" t="n">
         <v>24</v>
@@ -836,13 +836,13 @@
         <v>44897</v>
       </c>
       <c r="B20" t="n">
-        <v>52.82923831738742</v>
+        <v>58.35416874254167</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3805845376026289</v>
+        <v>1.568169573277788</v>
       </c>
       <c r="D20" t="n">
-        <v>105.4662225926633</v>
+        <v>116.6606037084934</v>
       </c>
       <c r="E20" t="n">
         <v>12</v>
@@ -856,13 +856,13 @@
         <v>44908</v>
       </c>
       <c r="B21" t="n">
-        <v>-8.166384758647155</v>
+        <v>6.305869273152325</v>
       </c>
       <c r="C21" t="n">
-        <v>-58.28399630238432</v>
+        <v>-51.67457172080397</v>
       </c>
       <c r="D21" t="n">
-        <v>44.67712072522249</v>
+        <v>64.92586599127097</v>
       </c>
       <c r="E21" t="n">
         <v>24</v>
@@ -876,13 +876,13 @@
         <v>44915</v>
       </c>
       <c r="B22" t="n">
-        <v>-10.89735627224513</v>
+        <v>0.6815759922778852</v>
       </c>
       <c r="C22" t="n">
-        <v>-65.575764821799</v>
+        <v>-53.02939617635077</v>
       </c>
       <c r="D22" t="n">
-        <v>43.55724274135609</v>
+        <v>53.7430928745602</v>
       </c>
       <c r="E22" t="n">
         <v>12</v>
@@ -896,13 +896,13 @@
         <v>44925</v>
       </c>
       <c r="B23" t="n">
-        <v>34.9797767953454</v>
+        <v>28.43665021984771</v>
       </c>
       <c r="C23" t="n">
-        <v>-22.60579927011893</v>
+        <v>-30.72001239054921</v>
       </c>
       <c r="D23" t="n">
-        <v>88.70407775988052</v>
+        <v>84.55951815013765</v>
       </c>
       <c r="E23" t="n">
         <v>6</v>
@@ -916,13 +916,13 @@
         <v>44932</v>
       </c>
       <c r="B24" t="n">
-        <v>43.89974960098448</v>
+        <v>44.52428648572413</v>
       </c>
       <c r="C24" t="n">
-        <v>-10.5342698122919</v>
+        <v>-11.67379405524561</v>
       </c>
       <c r="D24" t="n">
-        <v>99.25628501411919</v>
+        <v>100.6416950562021</v>
       </c>
       <c r="E24" t="n">
         <v>6</v>
@@ -936,13 +936,13 @@
         <v>44936</v>
       </c>
       <c r="B25" t="n">
-        <v>47.57351466727539</v>
+        <v>57.2189703684088</v>
       </c>
       <c r="C25" t="n">
-        <v>-9.411944991859869</v>
+        <v>0.7877456843258293</v>
       </c>
       <c r="D25" t="n">
-        <v>101.6640064343495</v>
+        <v>113.2945930992684</v>
       </c>
       <c r="E25" t="n">
         <v>78</v>
@@ -956,13 +956,13 @@
         <v>44946</v>
       </c>
       <c r="B26" t="n">
-        <v>-28.11018284833131</v>
+        <v>6.772975075105819</v>
       </c>
       <c r="C26" t="n">
-        <v>-82.30908937519636</v>
+        <v>-50.44280773699816</v>
       </c>
       <c r="D26" t="n">
-        <v>22.56595147907268</v>
+        <v>64.53732456877914</v>
       </c>
       <c r="E26" t="n">
         <v>102</v>
@@ -976,13 +976,13 @@
         <v>44950</v>
       </c>
       <c r="B27" t="n">
-        <v>-23.85745269850486</v>
+        <v>15.92066580614289</v>
       </c>
       <c r="C27" t="n">
-        <v>-78.59941613071827</v>
+        <v>-41.59273875363399</v>
       </c>
       <c r="D27" t="n">
-        <v>25.7754163469377</v>
+        <v>73.32959622632939</v>
       </c>
       <c r="E27" t="n">
         <v>72</v>
@@ -996,13 +996,13 @@
         <v>44957</v>
       </c>
       <c r="B28" t="n">
-        <v>9.678509780204763</v>
+        <v>26.51310440399084</v>
       </c>
       <c r="C28" t="n">
-        <v>-42.671822218259</v>
+        <v>-28.06740248562653</v>
       </c>
       <c r="D28" t="n">
-        <v>63.7743976996435</v>
+        <v>84.15283509022019</v>
       </c>
       <c r="E28" t="n">
         <v>6</v>
@@ -1016,13 +1016,13 @@
         <v>44960</v>
       </c>
       <c r="B29" t="n">
-        <v>-9.016951995130398</v>
+        <v>0.4669856171025231</v>
       </c>
       <c r="C29" t="n">
-        <v>-67.28803390388877</v>
+        <v>-55.76226652398756</v>
       </c>
       <c r="D29" t="n">
-        <v>45.22952786524271</v>
+        <v>56.89115762245431</v>
       </c>
       <c r="E29" t="n">
         <v>6</v>
@@ -1036,13 +1036,13 @@
         <v>44971</v>
       </c>
       <c r="B30" t="n">
-        <v>-26.29458121575556</v>
+        <v>-30.3546036718601</v>
       </c>
       <c r="C30" t="n">
-        <v>-79.75598260244053</v>
+        <v>-84.83851877685842</v>
       </c>
       <c r="D30" t="n">
-        <v>28.57079250939664</v>
+        <v>26.32810873775664</v>
       </c>
       <c r="E30" t="n">
         <v>6</v>
@@ -1056,13 +1056,13 @@
         <v>44988</v>
       </c>
       <c r="B31" t="n">
-        <v>37.15518427879442</v>
+        <v>35.78447881443458</v>
       </c>
       <c r="C31" t="n">
-        <v>-17.64424036730331</v>
+        <v>-15.35200039692451</v>
       </c>
       <c r="D31" t="n">
-        <v>89.4966619975087</v>
+        <v>94.09786536055938</v>
       </c>
       <c r="E31" t="n">
         <v>48</v>
@@ -1076,13 +1076,13 @@
         <v>44992</v>
       </c>
       <c r="B32" t="n">
-        <v>120.3787026215851</v>
+        <v>120.0789252379659</v>
       </c>
       <c r="C32" t="n">
-        <v>67.68550278130252</v>
+        <v>66.61636501299597</v>
       </c>
       <c r="D32" t="n">
-        <v>171.6232837245317</v>
+        <v>177.5160103034077</v>
       </c>
       <c r="E32" t="n">
         <v>30</v>
@@ -1096,13 +1096,13 @@
         <v>45020</v>
       </c>
       <c r="B33" t="n">
-        <v>28.75243731417515</v>
+        <v>32.7369718069408</v>
       </c>
       <c r="C33" t="n">
-        <v>-22.67952027881001</v>
+        <v>-23.63362151968174</v>
       </c>
       <c r="D33" t="n">
-        <v>81.76929853281432</v>
+        <v>94.24608555425536</v>
       </c>
       <c r="E33" t="n">
         <v>36</v>
@@ -1116,13 +1116,13 @@
         <v>45027</v>
       </c>
       <c r="B34" t="n">
-        <v>-37.92180882195714</v>
+        <v>-34.44616932845224</v>
       </c>
       <c r="C34" t="n">
-        <v>-90.83312886350249</v>
+        <v>-95.74606520954931</v>
       </c>
       <c r="D34" t="n">
-        <v>19.42880598817889</v>
+        <v>21.61115289452398</v>
       </c>
       <c r="E34" t="n">
         <v>102</v>
@@ -1136,13 +1136,13 @@
         <v>45034</v>
       </c>
       <c r="B35" t="n">
-        <v>22.20437789244568</v>
+        <v>19.24970422514252</v>
       </c>
       <c r="C35" t="n">
-        <v>-32.72138054915139</v>
+        <v>-38.66923809496869</v>
       </c>
       <c r="D35" t="n">
-        <v>76.68369319728411</v>
+        <v>76.44584986747265</v>
       </c>
       <c r="E35" t="n">
         <v>12</v>
@@ -1217,22 +1217,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2813.744875386076</v>
+        <v>1834.014076135035</v>
       </c>
       <c r="C2" t="n">
-        <v>53.04474408823249</v>
+        <v>42.82539055437831</v>
       </c>
       <c r="D2" t="n">
-        <v>39.26544468534936</v>
+        <v>33.46776003307935</v>
       </c>
       <c r="E2" t="n">
-        <v>3.370064205984664</v>
+        <v>3.005228742345092</v>
       </c>
       <c r="F2" t="n">
-        <v>3.522285663265261</v>
+        <v>3.096766167058126</v>
       </c>
       <c r="G2" t="n">
-        <v>1.482050404451289</v>
+        <v>1.42035990547772</v>
       </c>
       <c r="H2" t="n">
         <v>0.875</v>
@@ -1243,25 +1243,25 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>2906.415041504848</v>
+        <v>2633.431218915517</v>
       </c>
       <c r="C3" t="n">
-        <v>53.91117733369257</v>
+        <v>51.31696813838009</v>
       </c>
       <c r="D3" t="n">
-        <v>42.32233866142379</v>
+        <v>38.83832816691646</v>
       </c>
       <c r="E3" t="n">
-        <v>2.028408653054441</v>
+        <v>1.923975252397599</v>
       </c>
       <c r="F3" t="n">
-        <v>1.335809770655877</v>
+        <v>1.10907654597203</v>
       </c>
       <c r="G3" t="n">
-        <v>1.242918919622092</v>
+        <v>1.1759942299528</v>
       </c>
       <c r="H3" t="n">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
